--- a/tgbot/data/Фильтры в наличии 1.xlsx
+++ b/tgbot/data/Фильтры в наличии 1.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zik/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zik/Documents/Programs/ParserTenders/tgbot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D446ED-A568-C24D-BF55-C826D8D91B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387E2C94-57A6-224C-A755-0C52CE2D5314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2300" yWindow="520" windowWidth="16800" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$E$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$E$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,12 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Наименование Wanlanda</t>
-  </si>
-  <si>
-    <t>Наименование аналога</t>
-  </si>
-  <si>
     <t>Количество</t>
   </si>
   <si>
@@ -76,6 +70,12 @@
   </si>
   <si>
     <t>Цена продажи, с НДС</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Артикул</t>
   </si>
 </sst>
 </file>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -435,88 +435,88 @@
     <col min="5" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>580</v>
+      </c>
+      <c r="E2" s="4">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
         <v>580</v>
       </c>
       <c r="E3" s="4">
-        <v>611</v>
+        <v>1560</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="E4" s="4">
-        <v>1560</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E5" s="4">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2">
-        <v>160</v>
-      </c>
-      <c r="E6" s="4">
         <v>2600</v>
       </c>
     </row>
